--- a/Journal de travai.xlsx
+++ b/Journal de travai.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyprien.Jaquier\Desktop\3 - 4\Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyprien.Jaquier\Documents\GitHub\Web-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -43,13 +43,16 @@
   <si>
     <t>Sources</t>
   </si>
+  <si>
+    <t>Commencement de l'analyse, création du journal de travail et des scénarios.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -127,7 +130,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -140,7 +143,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -156,7 +159,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -444,7 +447,7 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,14 +481,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="12">
+        <v>44230</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10">
         <f>C2-B2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="11"/>
+        <v>-0.47222222222222227</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
